--- a/biology/Zoologie/Les_Dents_de_la_mer_4/Les_Dents_de_la_mer_4.xlsx
+++ b/biology/Zoologie/Les_Dents_de_la_mer_4/Les_Dents_de_la_mer_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dents de la mer 4 : La Revanche (Jaws: The Revenge, litt. « Les Mâchoires : La Revanche ») est un film américain réalisé et produit par Joseph Sargent et sorti en 1987. Suite directe des Dents de la mer, 2e partie (car ignorant les évènements du troisième opus), il s'agit du quatrième et dernier volet de la saga des Dents de la mer. Il raconte l'histoire d'Ellen Brody (Lorraine Gary) désormais veuve et sa conviction qu'un grand requin blanc cherche à se venger de sa famille, notamment lorsqu'il tue l'un de ses fils, Sean (Mitchell Anderson). Elle part alors aux Bahamas pour rejoindre son autre fils Michael (Lance Guest) et elle découvre une fois sur place que le squale l'a poursuivi.
 Les Dents de la mer 4 : La Revanche a été tourné sur place en Nouvelle-Angleterre et aux Bahamas, ainsi que dans les studios Universal. Comme lors des deux premiers films, Martha's Vineyard a été le lieu de tournage pour les scènes d'ouverture se déroulant sur l'île fictive d'Amity. Alors que la production des trois premiers opus de la saga a duré environ deux ans pour chaque films, Les Dents de la mer 4 : La Revanche a été produit en moins de neuf mois. Par ailleurs, il est le dernier film réalisé par Joseph Sargent pour le cinéma et le dernier rôle de Lorraine Gary.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les années ont passé depuis que deux grands requins blancs ont semé la terreur sur les plages de la station balnéaire d'Amity aux États-Unis. Martin Brody, chef de la police et véritable héros local, est décédé d'une crise cardiaque. Sa veuve, Ellen, vit toujours à Amity près de son fils cadet, Sean, et de sa fiancée, Tiffany. Sean travaille désormais comme adjoint de police. Quelques jours avant Noël, alors qu'il est envoyé au large de l'île enlever un tronc d'une bouée, un grand requin blanc surgit et lui arrache le bras. Il crie à l'aide, mais les cantiques de Noël chantés sur le port par la population locale étouffent ses cris. Le requin refait alors surface, coule son bateau et le traîne sous l'eau jusqu'à sa mort.
 Le fils aîné de Martin, Michael, sa femme, Carla, et leur fille de cinq ans, Thea, viennent à Amity pour les funérailles. Michael travaille aux Bahamas en tant que biologiste marin et après la cérémonie de l'enterrement, Ellen exige qu'il arrête son travail. Michael vient à peine de recevoir sa première bourse et est réticent à l'idée de tout arrêter. Sa fille Thea convainc Ellen de retourner avec eux aux Bahamas. Le pilote de leur petit avion, Hoagie Newcombe, s'intéresse à Ellen lorsqu'il les ramène aux Bahamas. Voulant oublier la mort de son fils cadet et se sentir désirée, elle commence à flirter avec lui. Michael présente à sa mère son collègue Jake Whitherspoon et sa femme Louisa puis passent Noël et le Nouvel An ensemble.
@@ -551,7 +565,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Jaws: The Revenge
 Titre français : Les Dents de la mer 4 : La Revanche
@@ -576,7 +592,7 @@
 Dates de sortie :
 États-Unis et Canada : 17 juillet 1987
 France : 23 décembre 1987
-Classification[1] :
+Classification :
 États-Unis : PG-13, déconseillé aux moins de 13 ans lors de sa sortie
 France : interdit aux moins de 12 ans lors de sa sortie</t>
         </is>
@@ -606,7 +622,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lorraine Gary (VF : Jeanine Freson) : Ellen Brody
 Lance Guest (VF : Éric Herson-Macarel) : Michael « Mike » Brody
@@ -657,10 +675,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Le film a été produit en moins de neuf mois. Frank Baur, producteur associé et directeur de la production, a déclaré lors du tournage que « cette [Revanche] sera la plus rapide que je n'ai jamais vu sur un film majeur, planifié et réalisé au cours de mes 35 ans de carrière en tant que directeur de la production »[2].
-Distribution des rôles
-Lorraine Gary reprend le rôle d'Ellen Brody qu'elle tenait dans les deux premiers opus. En revanche, Roy Scheider n'a pas voulu revenir et une allusion à la mort de son personnage d'une crise cardiaque est faite dans le film. On revoit cependant son portrait photographique dans le bureau du chef de la police d'Amity où son fils cadet, Sean, lui a succédé. Il réapparaît aussi dans deux scènes extraites du premier film dans les souvenirs de sa femme. La première se déroule au cimetière pendant l'enterrement de Sean où elle repense à Martin portant Sean enfant (alors joué par Jay Mello) sur ses genoux. Dans la seconde, on le revoit au moment où il tue le requin du premier film en tirant sur la bouteille de plongée : Ellen repense à lui au moment où elle éperonne le requin avec le navire. Or cette scène est incohérente, puisqu'elle fait se remémorer à Ellen Brody des événements qu'elle n'a, n'ayant jamais été présente sur l'Orca, elle-même jamais vécus.
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été produit en moins de neuf mois. Frank Baur, producteur associé et directeur de la production, a déclaré lors du tournage que « cette [Revanche] sera la plus rapide que je n'ai jamais vu sur un film majeur, planifié et réalisé au cours de mes 35 ans de carrière en tant que directeur de la production ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Dents_de_la_mer_4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Dents_de_la_mer_4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Distribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorraine Gary reprend le rôle d'Ellen Brody qu'elle tenait dans les deux premiers opus. En revanche, Roy Scheider n'a pas voulu revenir et une allusion à la mort de son personnage d'une crise cardiaque est faite dans le film. On revoit cependant son portrait photographique dans le bureau du chef de la police d'Amity où son fils cadet, Sean, lui a succédé. Il réapparaît aussi dans deux scènes extraites du premier film dans les souvenirs de sa femme. La première se déroule au cimetière pendant l'enterrement de Sean où elle repense à Martin portant Sean enfant (alors joué par Jay Mello) sur ses genoux. Dans la seconde, on le revoit au moment où il tue le requin du premier film en tirant sur la bouteille de plongée : Ellen repense à lui au moment où elle éperonne le requin avec le navire. Or cette scène est incohérente, puisqu'elle fait se remémorer à Ellen Brody des événements qu'elle n'a, n'ayant jamais été présente sur l'Orca, elle-même jamais vécus.
 Murray Hamilton, qui interpréta le personnage de Larry Vaughn, le maire d'Amity dans les deux premiers films, avait accepté de reprendre son rôle, mais il décéda peu avant le début du tournage.
 Ce quatrième film se veut dans la continuité des deux premiers films tout en s'éloignant du troisième qui avait eu moins de succès. Ainsi, Lance Guest et Mitchell Anderson remplacent Dennis Quaid et John Putch dans les rôles des fils Brody.
 C'est l'une des dernières apparitions sur grand écran de Judith Barsi, qui mourra l'année suivante assassinée avec sa mère par son père.
@@ -668,34 +726,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Les_Dents_de_la_mer_4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Dents_de_la_mer_4</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critiques
-Les critiques ont été extrêmement négatives, le film a une côte de 0 % sur le site agrégateur Rotten Tomatoes et est largement considéré comme un des pires films jamais réalisés dans toute l'histoire du cinéma américain[3],[4].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les critiques ont été extrêmement négatives, le film a une côte de 0 % sur le site agrégateur Rotten Tomatoes et est largement considéré comme un des pires films jamais réalisés dans toute l'histoire du cinéma américain,.
 Le film a été chroniqué sur Nanarland ; les principaux reproches qui ont été faits au film sont avant tout l'histoire jugée comme tout simplement "surréaliste" (l'idée du squale traquant le personnage d'Ellen Brody jusqu'au Bahamas et voulant se venger), de même que les nombreux temps morts, les personnages jugés "clichés" ou "inintéressants", la qualité discutable des effets spéciaux et de certaines scènes devenus célèbres pour leurs ridicules, notamment :
 celle où le squale fait un bond grotesque en dehors de l'eau, avale le personnage joué par Mario Van Peebles, l'emmène au fond des flots pour qu'au final, le personnage refasse son apparition parfaitement conscient et blessé superficiellement quelques instants plus tard ;
 celle où le squale émet un rugissement en dehors de l'eau ;
@@ -705,38 +768,74 @@
 vers la fin du film, Hoagie est attaqué sur son avion par le requin, lorsqu'il sort de l'eau, sa chemise est sèche ;
 le fait qu'Ellen ait des flash-backs du premier opus de moments où elle n'était même pas présente ;
 la mort jugée proprement hallucinante du requin où il explose instantanément après avoir été empalé de manière complètement aléatoire par la proue, de même que les effets spéciaux de cette scène ont été extrêmement moqués. Cette fin n'est cependant pas la première. Dans la fin originale, Ellen empale le requin avec la proue du bateau, ce dernier se vide de son sang et coule en emportant l'embarcation avec lui. Cependant les producteurs ne furent pas satisfaits et décidèrent de la refaire bien qu'elle n'ait aucun sens. La fin originale est présente sur certaines versions DVD et Blu-Ray du film.
-juste après la mort du requin, un stock-shot de la mort de celui du premier film de la franchise apparaît furtivement de même que l'on constate que le mécanisme du requin est rempli de défauts, on remarque même une fermeture éclair derrière l'aileron du squale.
-Box-office
-Le film a été un échec commercial aux États-Unis : produit pour un budget de 25 millions de dollars, il n'en rapporte que 20 millions. Il est cependant « sauvé » par son exploitation dans les pays étrangers, où il rapporte 31 millions, pour un total de 51 millions de dollars[5]. Néanmoins, cela demeure le succès le plus faible de la saga. En France, le film enregistre 843 420 entrées[6].
+juste après la mort du requin, un stock-shot de la mort de celui du premier film de la franchise apparaît furtivement de même que l'on constate que le mécanisme du requin est rempli de défauts, on remarque même une fermeture éclair derrière l'aileron du squale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Dents_de_la_mer_4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Dents_de_la_mer_4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été un échec commercial aux États-Unis : produit pour un budget de 25 millions de dollars, il n'en rapporte que 20 millions. Il est cependant « sauvé » par son exploitation dans les pays étrangers, où il rapporte 31 millions, pour un total de 51 millions de dollars. Néanmoins, cela demeure le succès le plus faible de la saga. En France, le film enregistre 843 420 entrées.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Les_Dents_de_la_mer_4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Dents_de_la_mer_4</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce quatrième film ne tient pas compte des évènements du précédent opus. Michael Brody n'est plus avec sa petite amie du troisième film, Kathryn Morgan, qui s'occupait des dauphins au parc aquatique, et était jouée par Bess Armstrong, mais il est marié à Carla avec qui il a une fille de huit ans, Thea, ce qui impliquerait que le film se passe au moins neuf ans après le troisième opus. Un lien dans la continuité avec le troisième film demeure cependant : Michael Brody envisageait d'aller s'établir avec Kathryn aux Bahamas pour y étudier les animaux marins. On le retrouve en effet là-bas dans ce quatrième film pour y préparer un doctorat ès sciences sur les mollusques. De même, Sean Brody n'est plus avec sa petite amie Kelly Ann Bukowski jouée par Lea Thompson mais est ici fiancé avec une prénommée Tiffany vivant à Amity.
 La scène du concours de grimaces entre Brody et sa fille rappelle délibérément une scène similaire du premier film.
